--- a/AGS仕様書.xlsx
+++ b/AGS仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1335,36 +1335,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1412,6 +1382,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6435,15 +6435,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>231323</xdr:rowOff>
+      <xdr:colOff>71439</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>159886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>108859</xdr:rowOff>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>37422</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6452,8 +6452,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1360716" y="7089323"/>
-          <a:ext cx="2721427" cy="857250"/>
+          <a:off x="14573252" y="5351011"/>
+          <a:ext cx="2762248" cy="830036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6565,15 +6565,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>2722</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>206830</xdr:rowOff>
+      <xdr:colOff>336097</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>2720</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>84366</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>214311</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6582,8 +6582,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1363436" y="5350330"/>
-          <a:ext cx="2721427" cy="857250"/>
+          <a:off x="14837910" y="7477125"/>
+          <a:ext cx="9069840" cy="785811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7083,9 +7083,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>272142</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
@@ -7100,8 +7100,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2313213" y="8018689"/>
-          <a:ext cx="0" cy="962026"/>
+          <a:off x="15454312" y="8262937"/>
+          <a:ext cx="10205" cy="663349"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7129,16 +7129,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>217715</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>98651</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>340178</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>217715</xdr:rowOff>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>193903</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7146,9 +7146,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2354035" y="8300358"/>
-          <a:ext cx="7511143" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="15981589" y="6572250"/>
+          <a:ext cx="7068911" cy="3403"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11275,6 +11275,100 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>292554</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>292554</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>159884</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直線矢印コネクタ 106"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18937742" y="6643688"/>
+          <a:ext cx="0" cy="612321"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="127000">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>254454</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>230641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>254454</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121784</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直線矢印コネクタ 107"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23043017" y="6612391"/>
+          <a:ext cx="0" cy="605518"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="127000">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11578,7 +11672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -11604,7 +11698,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="37">
+      <c r="B3" s="27">
         <v>45762</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -11618,7 +11712,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="37">
+      <c r="B4" s="27">
         <v>45762</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -11632,7 +11726,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="37">
+      <c r="B5" s="27">
         <v>45763</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -11646,7 +11740,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="37">
+      <c r="B6" s="27">
         <v>45763</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -11770,44 +11864,44 @@
       </c>
     </row>
     <row r="6" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C7" s="15"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="17"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C10" s="17"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="35"/>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="17"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="35"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C12" s="17"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="35"/>
     </row>
     <row r="13" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="18"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="3:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="6" t="s">
@@ -11850,7 +11944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -11907,21 +12001,21 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="19" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11929,7 +12023,7 @@
       <c r="H12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -11937,7 +12031,7 @@
       <c r="H13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -11980,7 +12074,7 @@
       <c r="H20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -11988,21 +12082,21 @@
       <c r="H21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="19" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12010,7 +12104,7 @@
       <c r="H24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12018,7 +12112,7 @@
       <c r="H25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="20" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12042,10 +12136,10 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -12058,16 +12152,16 @@
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="19" t="s">
         <v>38</v>
       </c>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12075,13 +12169,13 @@
       <c r="H36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H37" s="12"/>
-      <c r="I37" s="29"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H38" t="s">
@@ -12105,10 +12199,10 @@
       </c>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -12124,7 +12218,7 @@
       <c r="H46" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="26" t="s">
+      <c r="I46" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -12132,12 +12226,12 @@
       <c r="H47" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I47" s="26" t="s">
+      <c r="I47" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H48" s="34" t="s">
+      <c r="H48" s="24" t="s">
         <v>62</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -12145,7 +12239,7 @@
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H49" s="34" t="s">
+      <c r="H49" s="24" t="s">
         <v>63</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -12153,7 +12247,7 @@
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H50" s="34" t="s">
+      <c r="H50" s="24" t="s">
         <v>66</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -12161,32 +12255,32 @@
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H51" s="33" t="s">
+      <c r="H51" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I51" s="33" t="s">
+      <c r="I51" s="23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H52" s="33" t="s">
+      <c r="H52" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="I52" s="33" t="s">
+      <c r="I52" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="19" t="s">
         <v>38</v>
       </c>
       <c r="I53" s="12"/>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H54" s="27" t="s">
+      <c r="H54" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="I54" s="31" t="s">
+      <c r="I54" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12194,7 +12288,7 @@
       <c r="H55" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I55" s="34" t="s">
+      <c r="I55" s="24" t="s">
         <v>75</v>
       </c>
     </row>
@@ -12247,42 +12341,42 @@
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H70" s="28" t="s">
+      <c r="H70" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="I70" s="25" t="s">
+      <c r="I70" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H72" s="29" t="s">
+      <c r="H72" s="19" t="s">
         <v>38</v>
       </c>
       <c r="I72" s="12"/>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H73" s="27" t="s">
+      <c r="H73" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I73" s="31" t="s">
+      <c r="I73" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H74" s="27" t="s">
+      <c r="H74" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I74" s="31" t="s">
+      <c r="I74" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H75" s="35"/>
-      <c r="I75" s="36"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12296,18 +12390,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AA17:AC17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N20" sqref="M19:N20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="W72" sqref="W72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="17" spans="27:29" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AA17" s="38" t="s">
+      <c r="AA17" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/AGS仕様書.xlsx
+++ b/AGS仕様書.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="4" r:id="rId1"/>
     <sheet name="概要" sheetId="1" r:id="rId2"/>
     <sheet name="画面仕様" sheetId="2" r:id="rId3"/>
     <sheet name="画面遷移" sheetId="3" r:id="rId4"/>
+    <sheet name="ゲームクリア条件" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1099,6 +1100,20 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア条件</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア条件は</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3590,14 +3605,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
+      <xdr:colOff>866775</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3607,8 +3622,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2219325" y="14077950"/>
-          <a:ext cx="3228975" cy="1466850"/>
+          <a:off x="2238375" y="13973175"/>
+          <a:ext cx="3257550" cy="1809750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3662,6 +3677,29 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>人雇ったり家具のレイアウトを変更できるようにしたい</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>とりあえず</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>フェーズ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11369,6 +11407,140 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="333375"/>
+          <a:ext cx="4905375" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
+            <a:t>画面遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="266700"/>
+          <a:ext cx="2743200" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>ゲームクリア条件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11673,13 +11845,13 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11754,10 +11926,18 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="27">
+        <v>45764</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="8"/>
@@ -11945,7 +12125,7 @@
   <dimension ref="C2:I75"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12390,8 +12570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AA17:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="W72" sqref="W72"/>
+    <sheetView topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12408,4 +12588,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/AGS仕様書.xlsx
+++ b/AGS仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="画面仕様" sheetId="2" r:id="rId3"/>
     <sheet name="画面遷移" sheetId="3" r:id="rId4"/>
     <sheet name="ゲームクリア条件" sheetId="5" r:id="rId5"/>
+    <sheet name="スケジュール管理" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="137">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -92,49 +93,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>色々な人がプレイしに来るので一人ひとりの売り上げをみんなの売り上げとして加算していくか、一人ひとりの売り上げをスコアとしてランキングに保存するか、</t>
-    <rPh sb="0" eb="2">
-      <t>イロイロ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カサン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームの目標</t>
     <rPh sb="4" eb="6">
       <t>モクヒョウ</t>
@@ -1117,12 +1075,295 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>色々な人がプレイしに来るので一人ひとりの売り上げをみんなの売り上げとして加算していくか、一人ひとりの売り上げをスコアとしてランキングに保存するか、全部か。</t>
+    <rPh sb="0" eb="2">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ゼンブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memoに追記</t>
+    <rPh sb="5" eb="7">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とりあえずソロプレイ前提で作ってシステムが完成したらマルチ対応させたい</t>
+    <rPh sb="10" eb="12">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文システムとお客の管理を実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お客の生成、移動、注文の表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装内容</t>
+    <rPh sb="0" eb="4">
+      <t>ジッソウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装目標</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文の制限時間を設定し、カウントダウン処理を追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CustomerクラスとOrderクラス、お客の生成、移動、注文の表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが注文を正しく処理できるかの判定ロジックを構築</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの操作と提供システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> プレイヤーが飲み物やスイーツを準備できる機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムを選択し、正しい提供を行う仕組みを構築</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提供結果に応じてスコアを加算/ペナルティを適用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UIと演出の追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文内容の表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム全体の制限時間を表示するタイマーUI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアや売上を表示するUI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 注文成功/失敗時のエフェクトや効果音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム全体の流れを統合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面以外の画面の仮画像表示</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア機能</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/15~4/21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/22~4/28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期限</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/29~5/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/6~5/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/13~5/19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/20~5/31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッファ期間</t>
+    <rPh sb="4" eb="6">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調整とデバッグ</t>
+    <rPh sb="0" eb="2">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームバランス調整やバグを修正</t>
+    <rPh sb="7" eb="9">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的なセットアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮のゲームループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要なクラス設計とゲーム概要の作成</t>
+    <rPh sb="12" eb="14">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本システムの設計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール管理</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規シートとして作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1173,6 +1414,23 @@
     </font>
     <font>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1302,12 +1560,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1325,12 +1586,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1428,8 +1683,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11844,8 +12118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11856,179 +12130,212 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="27">
+      <c r="B3" s="25">
         <v>45762</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>92</v>
+      <c r="E3" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="27">
+      <c r="B4" s="25">
         <v>45762</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="27">
+      <c r="B5" s="25">
         <v>45763</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>94</v>
+      <c r="E5" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>45763</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>92</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="27">
+      <c r="B7" s="25">
         <v>45764</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>92</v>
+      <c r="C7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="25">
+        <v>45768</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="25">
+        <v>45768</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D16"/>
+  <dimension ref="C3:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="63.75" customWidth="1"/>
+    <col min="4" max="4" width="69.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -12036,7 +12343,7 @@
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -12044,67 +12351,75 @@
       </c>
     </row>
     <row r="6" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C7" s="31"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>22</v>
+      <c r="C8" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="38"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C10" s="38"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="38"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C12" s="38"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="33"/>
     </row>
     <row r="13" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="39"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="34"/>
     </row>
-    <row r="14" spans="3:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="7" t="s">
+    <row r="14" spans="3:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3" t="s">
+    <row r="15" spans="3:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="16" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    <row r="16" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D18" s="6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D20" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -12124,7 +12439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
@@ -12136,340 +12451,340 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="C2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="4" spans="3:9" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="C4" s="11" t="s">
-        <v>16</v>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.4">
       <c r="F7" s="1"/>
       <c r="H7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="12"/>
+      <c r="H10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>34</v>
+      <c r="H11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H22" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="12"/>
+      <c r="H22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H23" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>34</v>
+      <c r="H23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="C30" s="13" t="s">
-        <v>19</v>
+      <c r="C30" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H32" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>54</v>
+      <c r="H32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H33" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H34" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="12"/>
+      <c r="H34" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H35" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>34</v>
+      <c r="H35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H37" s="12"/>
-      <c r="I37" s="19"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="17"/>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H44" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>65</v>
+      <c r="H44" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H45" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H46" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H47" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H48" s="24" t="s">
-        <v>62</v>
+      <c r="H48" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H49" s="24" t="s">
-        <v>63</v>
+      <c r="H49" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H50" s="24" t="s">
-        <v>66</v>
+      <c r="H50" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H51" s="23" t="s">
+      <c r="H51" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I51" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H52" s="23" t="s">
+      <c r="H52" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52" s="21" t="s">
         <v>77</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H53" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I53" s="12"/>
+      <c r="H53" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H54" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I54" s="21" t="s">
-        <v>34</v>
+      <c r="H54" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H55" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.4">
@@ -12478,7 +12793,7 @@
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H57" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I57" s="4"/>
     </row>
@@ -12487,76 +12802,76 @@
       <c r="I58" s="4"/>
     </row>
     <row r="65" spans="3:9" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="C65" s="13" t="s">
-        <v>21</v>
+      <c r="C65" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H68" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H69" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H70" s="18" t="s">
+      <c r="H70" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I70" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="I70" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H72" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I72" s="12"/>
+      <c r="H72" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" s="10"/>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H73" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I73" s="21" t="s">
-        <v>34</v>
+      <c r="H73" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H74" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I74" s="21" t="s">
-        <v>85</v>
+      <c r="H74" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="H75" s="25"/>
-      <c r="I75" s="26"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12577,11 +12892,11 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="17" spans="27:29" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AA17" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
+      <c r="AA17" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12594,7 +12909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -12602,7 +12917,7 @@
   <sheetData>
     <row r="6" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -12610,4 +12925,1107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="3" max="3" width="60.25" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="41">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="41">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D6:D20">
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5DA51A0B-6ACE-4FE7-A1C7-90CC97BC7D4A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7B9C28B7-6446-4544-AE81-E47373F6E9A6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{07BBCB2C-F372-4C79-BD27-B6602B892E2B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D20">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8B964863-5B19-444F-B5F9-43BFD127F20B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3DC27F7A-4929-4054-8554-FE2E8391CAA2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8922E05C-B796-4924-985E-405417DF4637}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8C6D70DD-1BA6-47BB-8F75-EC84A0B13C87}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6A5D2F10-C4C5-4250-BDD0-CE9AAA076A65}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AA9E24A0-31CD-4331-A6A7-5A9DE4B7A116}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F62F0070-418F-433C-AD22-0B9D00D164B0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B78D7469-B494-45C9-86DA-A93A8E565F0D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2511A860-641C-47D2-ACA2-F1A47FCE0611}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D20">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0103EEDB-D891-4137-85E1-B8068A32376D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D0B4A596-9C60-451F-B990-DFC378CA22DB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3C16ACC3-EF4F-4FA0-B5CB-54A0F5BAE5DE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D20">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{527DAB8A-EBD8-4887-9557-E5A5946AA03D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1E3EA266-E26B-4820-9940-DC06329842B5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{45657A0E-5C56-4952-AA43-AC2336FBB107}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D4168E8B-1053-443A-9F44-D2BE5577A272}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A5EF5B61-F7BE-4D08-9214-8018DEC5F3C0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D91D671E-A9D1-41CC-AB9B-C6C56F7CFF91}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F235A79-C95D-42E1-8B43-1B8BCECB748F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1FE207D8-78A9-44AE-995B-5ADE96D14A35}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{319BCB92-52DD-4648-9E92-83525B0C8968}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{36FA6E0B-EE37-462F-B830-27B80E215B32}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{64DBCDDC-CFBD-4FAD-8C58-7805601C8AA2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A2934E0E-3B9A-4A85-B3E7-9F5AD258ACA8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7C650840-1ED7-4D7B-AB34-540A1976F843}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58989077-BB65-44E9-8F9B-7B803ACC623C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2AD12C55-59C9-4393-87F6-8800275AAE1A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3B1DA895-88DD-4918-90DC-2029A69F9E43}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C5222B0E-AAEB-4636-9A31-2E4D78B629EC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{19A08FCB-5543-433D-8928-0B664D00584E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E8481D6C-4A44-4ED3-A2FD-8A3B1099307A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5DA51A0B-6ACE-4FE7-A1C7-90CC97BC7D4A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D6:D20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7B9C28B7-6446-4544-AE81-E47373F6E9A6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{07BBCB2C-F372-4C79-BD27-B6602B892E2B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8B964863-5B19-444F-B5F9-43BFD127F20B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{3DC27F7A-4929-4054-8554-FE2E8391CAA2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{8922E05C-B796-4924-985E-405417DF4637}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{8C6D70DD-1BA6-47BB-8F75-EC84A0B13C87}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D6:D20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6A5D2F10-C4C5-4250-BDD0-CE9AAA076A65}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:D5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AA9E24A0-31CD-4331-A6A7-5A9DE4B7A116}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{F62F0070-418F-433C-AD22-0B9D00D164B0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{B78D7469-B494-45C9-86DA-A93A8E565F0D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2511A860-641C-47D2-ACA2-F1A47FCE0611}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:D5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0103EEDB-D891-4137-85E1-B8068A32376D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{D0B4A596-9C60-451F-B990-DFC378CA22DB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{3C16ACC3-EF4F-4FA0-B5CB-54A0F5BAE5DE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:D20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{527DAB8A-EBD8-4887-9557-E5A5946AA03D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{1E3EA266-E26B-4820-9940-DC06329842B5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:D20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{45657A0E-5C56-4952-AA43-AC2336FBB107}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:D4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D4168E8B-1053-443A-9F44-D2BE5577A272}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{A5EF5B61-F7BE-4D08-9214-8018DEC5F3C0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:D4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D91D671E-A9D1-41CC-AB9B-C6C56F7CFF91}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{3F235A79-C95D-42E1-8B43-1B8BCECB748F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{1FE207D8-78A9-44AE-995B-5ADE96D14A35}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{319BCB92-52DD-4648-9E92-83525B0C8968}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:D4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{36FA6E0B-EE37-462F-B830-27B80E215B32}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{64DBCDDC-CFBD-4FAD-8C58-7805601C8AA2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{A2934E0E-3B9A-4A85-B3E7-9F5AD258ACA8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{7C650840-1ED7-4D7B-AB34-540A1976F843}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{58989077-BB65-44E9-8F9B-7B803ACC623C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2AD12C55-59C9-4393-87F6-8800275AAE1A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3B1DA895-88DD-4918-90DC-2029A69F9E43}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{C5222B0E-AAEB-4636-9A31-2E4D78B629EC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{19A08FCB-5543-433D-8928-0B664D00584E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{E8481D6C-4A44-4ED3-A2FD-8A3B1099307A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/AGS仕様書.xlsx
+++ b/AGS仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="138">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1356,6 +1356,10 @@
     <rPh sb="8" eb="10">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイルストーン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1653,6 +1657,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1684,22 +1700,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12118,7 +12122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -12351,44 +12355,44 @@
       </c>
     </row>
     <row r="6" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C7" s="29"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="36" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="36"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C10" s="36"/>
-      <c r="D10" s="33"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="36"/>
-      <c r="D11" s="33"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="37"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C12" s="36"/>
-      <c r="D12" s="33"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="37"/>
-      <c r="D13" s="34"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="38"/>
     </row>
     <row r="14" spans="3:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="4" t="s">
@@ -12413,7 +12417,7 @@
       </c>
     </row>
     <row r="19" spans="4:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="28" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12929,10 +12933,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12943,197 +12947,202 @@
     <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="29" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="42" t="s">
         <v>134</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="30">
         <v>0.65</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="32" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="41">
-        <v>0</v>
+      <c r="D6" s="30">
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="42" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="42" t="s">
         <v>112</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="42" t="s">
         <v>117</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="30">
         <v>0</v>
       </c>
     </row>
@@ -13147,7 +13156,7 @@
       <c r="C19" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="30">
         <v>0</v>
       </c>
     </row>
@@ -13161,22 +13170,22 @@
       <c r="C20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="30">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B3:B5"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D6:D20">

--- a/AGS仕様書.xlsx
+++ b/AGS仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="140">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1273,22 +1273,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4/29~5/5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/6~5/12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/13~5/19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/20~5/31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バッファ期間</t>
     <rPh sb="4" eb="6">
       <t>キカン</t>
@@ -1360,6 +1344,30 @@
   </si>
   <si>
     <t>マイルストーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/29~5/5</t>
+  </si>
+  <si>
+    <t>5/6~5/12</t>
+  </si>
+  <si>
+    <t>5/13~5/19</t>
+  </si>
+  <si>
+    <t>5/20~5/25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/26~5/31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールの日程修正</t>
+    <rPh sb="7" eb="11">
+      <t>ニッテイシュウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1572,7 +1580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1668,6 +1676,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12122,8 +12133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12239,19 +12250,25 @@
         <v>89</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="6"/>
+      <c r="B10" s="25">
+        <v>45769</v>
+      </c>
       <c r="C10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
@@ -12355,44 +12372,44 @@
       </c>
     </row>
     <row r="6" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C7" s="33"/>
-      <c r="D7" s="35"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="40"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C10" s="40"/>
-      <c r="D10" s="37"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="40"/>
-      <c r="D11" s="37"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C12" s="40"/>
-      <c r="D12" s="37"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="38"/>
     </row>
     <row r="13" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="41"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="3:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="4" t="s">
@@ -12935,8 +12952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12949,7 +12966,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.4">
@@ -12963,48 +12980,48 @@
         <v>103</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>134</v>
+      <c r="B3" s="43" t="s">
+        <v>130</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D3" s="30">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D5" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -13015,8 +13032,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="4" t="s">
         <v>102</v>
       </c>
@@ -13025,8 +13042,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="4" t="s">
         <v>105</v>
       </c>
@@ -13035,8 +13052,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="4" t="s">
         <v>107</v>
       </c>
@@ -13045,10 +13062,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -13059,8 +13076,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="4" t="s">
         <v>110</v>
       </c>
@@ -13069,8 +13086,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="4" t="s">
         <v>111</v>
       </c>
@@ -13079,10 +13096,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="43" t="s">
         <v>112</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -13093,8 +13110,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="4" t="s">
         <v>114</v>
       </c>
@@ -13103,8 +13120,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="4" t="s">
         <v>115</v>
       </c>
@@ -13113,8 +13130,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="4" t="s">
         <v>116</v>
       </c>
@@ -13123,10 +13140,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>117</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -13137,8 +13154,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="4" t="s">
         <v>119</v>
       </c>
@@ -13147,14 +13164,14 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D19" s="30">
         <v>0</v>
@@ -13162,13 +13179,13 @@
     </row>
     <row r="20" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D20" s="30">
         <v>0</v>

--- a/AGS仕様書.xlsx
+++ b/AGS仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="4" r:id="rId1"/>
@@ -12133,7 +12133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -12952,8 +12952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13038,7 +13038,7 @@
         <v>102</v>
       </c>
       <c r="D7" s="30">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13048,7 +13048,7 @@
         <v>105</v>
       </c>
       <c r="D8" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">

--- a/AGS仕様書.xlsx
+++ b/AGS仕様書.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="142">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1156,10 +1156,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お客の生成、移動、注文の表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実装内容</t>
     <rPh sb="0" eb="4">
       <t>ジッソウナイヨウ</t>
@@ -1178,10 +1174,6 @@
   </si>
   <si>
     <t>注文の制限時間を設定し、カウントダウン処理を追加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CustomerクラスとOrderクラス、お客の生成、移動、注文の表示</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1370,12 +1362,43 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>CustomerクラスとOrderクラス、注文の表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お客の生成、移動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールの内容(注文システム)修正</t>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字修正</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1443,6 +1466,15 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1580,7 +1612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1680,6 +1712,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1714,6 +1752,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6542,6 +6595,70 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>コーヒーマシン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="テキスト ボックス 99"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="10753724"/>
+          <a:ext cx="495300" cy="638176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>⑨</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12134,7 +12251,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12250,10 +12367,10 @@
         <v>89</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
@@ -12264,27 +12381,39 @@
         <v>89</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="6"/>
+      <c r="B11" s="25">
+        <v>45769</v>
+      </c>
       <c r="C11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="25">
+        <v>45769</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="6"/>
@@ -12372,44 +12501,44 @@
       </c>
     </row>
     <row r="6" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C7" s="34"/>
-      <c r="D7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="41"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="40"/>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C10" s="41"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="41"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="40"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C12" s="41"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="40"/>
     </row>
     <row r="13" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="42"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="41"/>
     </row>
     <row r="14" spans="3:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="4" t="s">
@@ -12460,8 +12589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12953,7 +13082,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12966,198 +13095,198 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>130</v>
+      <c r="A3" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>128</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="30">
         <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D6" s="30">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="4" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="D7" s="30">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>108</v>
+      <c r="A10" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>106</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>112</v>
+      <c r="A13" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>110</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D15" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>117</v>
+      <c r="A17" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>115</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D18" s="30">
         <v>0</v>
@@ -13165,13 +13294,13 @@
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>122</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="30">
         <v>0</v>
@@ -13179,13 +13308,13 @@
     </row>
     <row r="20" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>121</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D20" s="30">
         <v>0</v>
@@ -13640,6 +13769,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/AGS仕様書.xlsx
+++ b/AGS仕様書.xlsx
@@ -1063,13 +1063,6 @@
   </si>
   <si>
     <t>ゲームクリア条件</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームクリア条件は</t>
     <rPh sb="6" eb="8">
       <t>ジョウケン</t>
     </rPh>
@@ -1390,6 +1383,16 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア条件は特になし</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1718,6 +1721,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1748,13 +1754,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1766,7 +1769,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12353,10 +12356,10 @@
         <v>89</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
@@ -12367,10 +12370,10 @@
         <v>89</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
@@ -12381,10 +12384,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
@@ -12395,10 +12398,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
@@ -12409,10 +12412,10 @@
         <v>89</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
@@ -12501,44 +12504,44 @@
       </c>
     </row>
     <row r="6" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C7" s="36"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="39"/>
     </row>
     <row r="8" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="43"/>
-      <c r="D9" s="40"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C10" s="43"/>
-      <c r="D10" s="40"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="43"/>
-      <c r="D11" s="40"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C12" s="43"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="41"/>
     </row>
     <row r="13" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="44"/>
-      <c r="D13" s="41"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="3:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="4" t="s">
@@ -12564,12 +12567,12 @@
     </row>
     <row r="19" spans="4:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D19" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D20" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -13035,7 +13038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AA17:AC17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -13060,14 +13063,14 @@
   <dimension ref="C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="6" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -13081,8 +13084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13095,198 +13098,198 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>128</v>
+      <c r="A3" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>127</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="30">
         <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="45"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="45"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="35" t="s">
-        <v>119</v>
+      <c r="A6" s="36" t="s">
+        <v>118</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="46"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="49"/>
       <c r="C7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="46"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="36"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="50"/>
       <c r="C9" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="D10" s="30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="45"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="45"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D13" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="45"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="45"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="45"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="47" t="s">
+      <c r="A17" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D17" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" s="30">
         <v>0</v>
@@ -13294,13 +13297,13 @@
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D19" s="30">
         <v>0</v>
@@ -13308,13 +13311,13 @@
     </row>
     <row r="20" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>121</v>
+        <v>135</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>120</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="30">
         <v>0</v>

--- a/AGS仕様書.xlsx
+++ b/AGS仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="143">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1206,10 +1206,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> 注文成功/失敗時のエフェクトや効果音</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム全体の流れを統合</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1393,6 +1389,20 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> リザルトの実装</t>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール変更</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1615,7 +1625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1722,6 +1732,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -12253,8 +12266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12370,10 +12383,10 @@
         <v>89</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
@@ -12384,10 +12397,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
@@ -12398,10 +12411,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
@@ -12412,19 +12425,25 @@
         <v>89</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="25">
+        <v>45784</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="6"/>
@@ -12504,44 +12523,44 @@
       </c>
     </row>
     <row r="6" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C7" s="37"/>
-      <c r="D7" s="39"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="8" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="44"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C10" s="44"/>
-      <c r="D10" s="41"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="44"/>
-      <c r="D11" s="41"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C12" s="44"/>
-      <c r="D12" s="41"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="42"/>
     </row>
     <row r="13" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="45"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="3:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="4" t="s">
@@ -13070,7 +13089,7 @@
   <sheetData>
     <row r="6" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -13084,8 +13103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13098,12 +13117,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>102</v>
@@ -13112,70 +13131,70 @@
         <v>101</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>127</v>
+      <c r="A3" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>126</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="30">
         <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="47"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="47"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="51"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="51"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="4" t="s">
         <v>103</v>
       </c>
@@ -13184,8 +13203,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="37"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="4" t="s">
         <v>104</v>
       </c>
@@ -13194,10 +13213,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -13208,8 +13227,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="47"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="4" t="s">
         <v>107</v>
       </c>
@@ -13218,8 +13237,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="47"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="4" t="s">
         <v>108</v>
       </c>
@@ -13228,10 +13247,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>109</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -13242,8 +13261,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="47"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="4" t="s">
         <v>111</v>
       </c>
@@ -13252,8 +13271,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="47"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="4" t="s">
         <v>112</v>
       </c>
@@ -13262,34 +13281,34 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="47"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D16" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D17" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="47"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="30">
         <v>0</v>
@@ -13297,13 +13316,13 @@
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D19" s="30">
         <v>0</v>
@@ -13311,13 +13330,13 @@
     </row>
     <row r="20" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" s="30">
         <v>0</v>

--- a/AGS仕様書.xlsx
+++ b/AGS仕様書.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="144">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1190,52 +1190,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UIと演出の追加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>注文内容の表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム全体の制限時間を表示するタイマーUI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スコアや売上を表示するUI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム全体の流れを統合</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム画面以外の画面の仮画像表示</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スコア機能</t>
-    <rPh sb="3" eb="5">
-      <t>キノウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1400,8 +1355,72 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スケジュール変更</t>
+    <t>スコア機能の追加</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮で機能実装</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム全体の制限時間を表示するタイマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアや売上を表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージや設置したオブジェクトの機能</t>
+    <rPh sb="5" eb="7">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置したオブジェクトの判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト毎の機能やフラグ判定</t>
+    <rPh sb="6" eb="7">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール内容変更</t>
     <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1625,7 +1644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1732,6 +1751,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -12264,10 +12286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12383,10 +12405,10 @@
         <v>89</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
@@ -12397,10 +12419,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
@@ -12411,10 +12433,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
@@ -12425,10 +12447,10 @@
         <v>89</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
@@ -12439,19 +12461,25 @@
         <v>89</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="25">
+        <v>45789</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
@@ -12476,6 +12504,118 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="37"/>
+      <c r="C25" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="37"/>
+      <c r="C26" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" s="37"/>
+      <c r="C27" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29" s="37"/>
+      <c r="C29" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30" s="37"/>
+      <c r="C30" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" s="37"/>
+      <c r="C31" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12523,44 +12663,44 @@
       </c>
     </row>
     <row r="6" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C7" s="38"/>
-      <c r="D7" s="40"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="42" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="45"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C10" s="45"/>
-      <c r="D10" s="42"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="45"/>
-      <c r="D11" s="42"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="43"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C12" s="45"/>
-      <c r="D12" s="42"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="43"/>
     </row>
     <row r="13" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="46"/>
-      <c r="D13" s="43"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="3:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="4" t="s">
@@ -13089,7 +13229,7 @@
   <sheetData>
     <row r="6" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -13101,28 +13241,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="36.625" customWidth="1"/>
     <col min="3" max="3" width="60.25" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>102</v>
@@ -13131,70 +13272,70 @@
         <v>101</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>126</v>
+    <row r="3" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>120</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D3" s="30">
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="48"/>
-      <c r="B4" s="47"/>
+    <row r="4" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="49"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="48"/>
-      <c r="B5" s="47"/>
+    <row r="5" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="49"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D5" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="49" t="s">
+    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="50" t="s">
         <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D6" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="52"/>
-      <c r="B7" s="50"/>
+    <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="53"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D7" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52"/>
-      <c r="B8" s="50"/>
+    <row r="8" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="53"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="4" t="s">
         <v>103</v>
       </c>
@@ -13202,113 +13343,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="38"/>
-      <c r="B9" s="51"/>
+    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="39"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="47" t="s">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="48" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D10" s="30">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="48"/>
-      <c r="B11" s="47"/>
+    <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="49"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D11" s="30">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="48"/>
-      <c r="B12" s="47"/>
+    <row r="12" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="49"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D12" s="30">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="47" t="s">
+    <row r="13" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="D13" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="48"/>
-      <c r="B14" s="47"/>
+    <row r="14" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="49"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="4" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D14" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="48"/>
-      <c r="B15" s="47"/>
+    <row r="15" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="49"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="D15" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="48"/>
-      <c r="B16" s="47"/>
+    <row r="16" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="49"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D16" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>113</v>
+      <c r="A17" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="D17" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="48"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="4" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D18" s="30">
         <v>0</v>
@@ -13316,13 +13466,13 @@
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="32" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D19" s="30">
         <v>0</v>
@@ -13330,13 +13480,13 @@
     </row>
     <row r="20" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D20" s="30">
         <v>0</v>

--- a/AGS仕様書.xlsx
+++ b/AGS仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="4" r:id="rId1"/>
@@ -1348,13 +1348,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> リザルトの実装</t>
-    <rPh sb="6" eb="8">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スコア機能の追加</t>
     <rPh sb="3" eb="5">
       <t>キノウ</t>
@@ -1422,6 +1415,16 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 仮でリザルトの実装</t>
+    <rPh sb="1" eb="2">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -12288,7 +12291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -12464,7 +12467,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
@@ -12478,7 +12481,7 @@
         <v>121</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
@@ -13243,8 +13246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13367,7 +13370,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
@@ -13380,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
@@ -13393,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
@@ -13401,7 +13404,7 @@
         <v>125</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>109</v>
@@ -13414,7 +13417,7 @@
       <c r="A14" s="49"/>
       <c r="B14" s="48"/>
       <c r="C14" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="30">
         <v>1</v>
@@ -13424,7 +13427,7 @@
       <c r="A15" s="49"/>
       <c r="B15" s="48"/>
       <c r="C15" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" s="30">
         <v>1</v>
@@ -13434,10 +13437,10 @@
       <c r="A16" s="49"/>
       <c r="B16" s="48"/>
       <c r="C16" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D16" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -13445,10 +13448,10 @@
         <v>126</v>
       </c>
       <c r="B17" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D17" s="30">
         <v>0</v>
@@ -13458,7 +13461,7 @@
       <c r="A18" s="49"/>
       <c r="B18" s="48"/>
       <c r="C18" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" s="30">
         <v>0</v>

--- a/AGS仕様書.xlsx
+++ b/AGS仕様書.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="9510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="4" r:id="rId1"/>
     <sheet name="概要" sheetId="1" r:id="rId2"/>
-    <sheet name="画面仕様" sheetId="2" r:id="rId3"/>
-    <sheet name="画面遷移" sheetId="3" r:id="rId4"/>
-    <sheet name="ゲームクリア条件" sheetId="5" r:id="rId5"/>
-    <sheet name="スケジュール管理" sheetId="6" r:id="rId6"/>
+    <sheet name="追加要素" sheetId="7" r:id="rId3"/>
+    <sheet name="画面仕様" sheetId="2" r:id="rId4"/>
+    <sheet name="画面遷移" sheetId="3" r:id="rId5"/>
+    <sheet name="ゲームクリア条件" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="139">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1145,123 +1145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>注文システムとお客の管理を実装</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実装内容</t>
-    <rPh sb="0" eb="4">
-      <t>ジッソウナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実装目標</t>
-    <rPh sb="0" eb="2">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モクヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>注文の制限時間を設定し、カウントダウン処理を追加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーが注文を正しく処理できるかの判定ロジックを構築</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーの操作と提供システム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> プレイヤーが飲み物やスイーツを準備できる機能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテムを選択し、正しい提供を行う仕組みを構築</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>提供結果に応じてスコアを加算/ペナルティを適用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>注文内容の表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4/15~4/21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4/22~4/28</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>期限</t>
-    <rPh sb="0" eb="2">
-      <t>キゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バッファ期間</t>
-    <rPh sb="4" eb="6">
-      <t>キカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調整とデバッグ</t>
-    <rPh sb="0" eb="2">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームバランス調整やバグを修正</t>
-    <rPh sb="7" eb="9">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>進捗</t>
-    <rPh sb="0" eb="2">
-      <t>シンチョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本的なセットアップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仮のゲームループ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必要なクラス設計とゲーム概要の作成</t>
-    <rPh sb="12" eb="14">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本システムの設計</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スケジュール管理</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
@@ -1279,39 +1162,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マイルストーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4/29~5/5</t>
-  </si>
-  <si>
-    <t>5/6~5/12</t>
-  </si>
-  <si>
-    <t>5/13~5/19</t>
-  </si>
-  <si>
-    <t>5/20~5/25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/26~5/31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スケジュールの日程修正</t>
     <rPh sb="7" eb="11">
       <t>ニッテイシュウセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CustomerクラスとOrderクラス、注文の表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お客の生成、移動</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1348,84 +1202,357 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スコア機能の追加</t>
-    <rPh sb="3" eb="5">
-      <t>キノウ</t>
+    <t>スケジュール内容変更</t>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仮で機能実装</t>
-    <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジッソウ</t>
+    <t>スケジュール管理シート削除（ガントチャートがある為）</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲーム全体の制限時間を表示するタイマー</t>
+    <t>2Dシミュレーション要素</t>
+    <rPh sb="10" eb="12">
+      <t>ヨウソ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スコアや売上を表示する</t>
+    <t>インタラクト処理があるもの</t>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステージや設置したオブジェクトの機能</t>
-    <rPh sb="5" eb="7">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キノウ</t>
-    </rPh>
+    <t>コーヒーマシン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>配置したオブジェクトの判定</t>
-    <rPh sb="0" eb="2">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンテイ</t>
+    <t>アイスディスペンサー（氷入れるやつ）</t>
+    <rPh sb="11" eb="12">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オブジェクト毎の機能やフラグ判定</t>
-    <rPh sb="6" eb="7">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハンテイ</t>
+    <t>蓋（ラック）</t>
+    <rPh sb="0" eb="1">
+      <t>フタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スケジュール内容変更</t>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
+    <t>シミュレーション要素</t>
     <rPh sb="8" eb="10">
-      <t>ヘンコウ</t>
+      <t>ヨウソ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> 仮でリザルトの実装</t>
-    <rPh sb="1" eb="2">
-      <t>カリ</t>
-    </rPh>
+    <t>マウスでボタンを長押しして注ぐ</t>
     <rPh sb="8" eb="10">
-      <t>ジッソウ</t>
-    </rPh>
+      <t>ナガオ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ソソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押した回数氷を数個入れる</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スウコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷を１個ずつ入れる。必要個数以上や未満だと減点とか</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ヒツヨウコスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゲンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライドさせて装着</t>
+    <rPh sb="7" eb="9">
+      <t>ソウチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注いでいる途中でボタンを押して止める</t>
+    <rPh sb="0" eb="1">
+      <t>ソソ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長押しでゲージ（コーヒー）上昇。狙い位置で離す（少し慣性つけたい）とgood判定</t>
+    <rPh sb="0" eb="2">
+      <t>ナガオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定位置で止める</t>
+    <rPh sb="0" eb="4">
+      <t>シテイイチ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定した位置にマウスなどでスライドさせる</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横や縦に動く蓋を指定位置に来るようにタイミングよくボタンを押して止める</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>シテイイチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲージ（コーヒー）が勝手に上昇するので狙い位置で止める。（少し慣性つけたい）</t>
+    <rPh sb="10" eb="12">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今はないけど2Dシミュレーション要素として追加検討中</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ケントウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル貼り</t>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定した位置にマウスなどでスライドさせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホットコーヒーとアイスコーヒー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイスコーヒー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストロー挿し込み</t>
+    <rPh sb="4" eb="5">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定した位置にマウスなどでスライドさせる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ固定見下ろしより１人称視点から2Dシミュレーション画面に切り替え(ウィンドウ表示とか）のほうがいいかも？</t>
+    <rPh sb="3" eb="5">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミオ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要そうな素材</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カップ、ラベル素材、位置ガイド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カップ、ストロー、挿入時の演出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空のコップ、注いでいる途中のコップ、目盛り用の線、ボタン、背景用のマシン</t>
+    <rPh sb="21" eb="22">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ハイケイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷1個の画像、カップ、「氷を入れる」ボタン、背景用のマシン</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カップ、フタ単体画像、背景のラック画像</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1433,7 +1560,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1491,7 +1618,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -1500,7 +1627,15 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1509,7 +1644,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1525,7 +1669,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1638,16 +1782,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1735,14 +1976,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1753,14 +1988,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1792,27 +2090,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1834,6 +2134,1938 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="132" name="グループ化 131"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="683561" y="6851277"/>
+          <a:ext cx="4612899" cy="3237380"/>
+          <a:chOff x="962027" y="10544176"/>
+          <a:chExt cx="4333874" cy="3276600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="133" name="正方形/長方形 132"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="962027" y="10544176"/>
+            <a:ext cx="4333874" cy="3276600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="134" name="角丸四角形 133"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1104900" y="11410950"/>
+            <a:ext cx="2428875" cy="523875"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="135" name="角丸四角形 134"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1143000" y="13268325"/>
+            <a:ext cx="3806730" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="136" name="角丸四角形 135"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3590925" y="11401425"/>
+            <a:ext cx="1476109" cy="542925"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="正方形/長方形 136"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1476375" y="13192125"/>
+            <a:ext cx="590550" cy="533400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="正方形/長方形 137"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3952875" y="13182600"/>
+            <a:ext cx="514350" cy="552450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="139" name="正方形/長方形 138"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="13249275"/>
+            <a:ext cx="514350" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="140" name="正方形/長方形 139"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1276350" y="11410950"/>
+            <a:ext cx="733425" cy="514350"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="141" name="正方形/長方形 140"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2428875" y="11449050"/>
+            <a:ext cx="819150" cy="466724"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="E997DF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="142" name="正方形/長方形 141"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3000375" y="13249275"/>
+            <a:ext cx="638174" cy="476249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="144" name="楕円 143"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3857625" y="10868025"/>
+            <a:ext cx="466725" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="145" name="楕円 144"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3171825" y="10848975"/>
+            <a:ext cx="466725" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="146" name="楕円 145"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2533650" y="10848975"/>
+            <a:ext cx="466725" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="147" name="楕円 146"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1847850" y="10848975"/>
+            <a:ext cx="466725" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="148" name="楕円 147"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1228725" y="10858500"/>
+            <a:ext cx="466725" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="149" name="円形吹き出し 148"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4219575" y="10553700"/>
+            <a:ext cx="742950" cy="561975"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeEllipseCallout">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="150" name="テキスト ボックス 149"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2714627" y="10553701"/>
+            <a:ext cx="885824" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+              <a:t>：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>39</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="151" name="円 150"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4667250" y="10896600"/>
+            <a:ext cx="314325" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="152" name="楕円 151"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1484207" y="12544425"/>
+            <a:ext cx="552450" cy="552450"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+              <a:t>P</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1924050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3067050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="右矢印 173"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991225" y="8191500"/>
+          <a:ext cx="1143000" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3124200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="円形吹き出し 174"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="8153399"/>
+          <a:ext cx="2343150" cy="828676"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マシンに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>インタラクト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（例）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4952998</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="176" name="グループ化 175"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7615518" y="6858000"/>
+          <a:ext cx="4610098" cy="3240181"/>
+          <a:chOff x="962027" y="10544176"/>
+          <a:chExt cx="4333874" cy="3276600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="177" name="正方形/長方形 176"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="962027" y="10544176"/>
+            <a:ext cx="4333874" cy="3276600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="178" name="角丸四角形 177"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1104900" y="11410950"/>
+            <a:ext cx="2428875" cy="523875"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="179" name="角丸四角形 178"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1143000" y="13268325"/>
+            <a:ext cx="3806730" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="180" name="角丸四角形 179"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3590925" y="11401425"/>
+            <a:ext cx="1476109" cy="542925"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="181" name="正方形/長方形 180"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1476375" y="13192125"/>
+            <a:ext cx="590550" cy="533400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="182" name="正方形/長方形 181"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3952875" y="13182600"/>
+            <a:ext cx="514350" cy="552450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="183" name="正方形/長方形 182"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="13249275"/>
+            <a:ext cx="514350" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="184" name="正方形/長方形 183"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1276350" y="11410950"/>
+            <a:ext cx="733425" cy="514350"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="185" name="正方形/長方形 184"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2428875" y="11449050"/>
+            <a:ext cx="819150" cy="466724"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="E997DF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="186" name="正方形/長方形 185"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3000375" y="13249275"/>
+            <a:ext cx="638174" cy="476249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="187" name="楕円 186"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3857625" y="10868025"/>
+            <a:ext cx="466725" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="188" name="楕円 187"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3171825" y="10848975"/>
+            <a:ext cx="466725" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="189" name="楕円 188"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2533650" y="10848975"/>
+            <a:ext cx="466725" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="190" name="楕円 189"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1847850" y="10848975"/>
+            <a:ext cx="466725" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="191" name="楕円 190"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1228725" y="10858500"/>
+            <a:ext cx="466725" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="192" name="円形吹き出し 191"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4219575" y="10553700"/>
+            <a:ext cx="742950" cy="561975"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeEllipseCallout">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="193" name="テキスト ボックス 192"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2714627" y="10553701"/>
+            <a:ext cx="885824" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+              <a:t>：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>39</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="194" name="円 193"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4667250" y="10896600"/>
+            <a:ext cx="314325" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="195" name="楕円 194"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1484207" y="12544425"/>
+            <a:ext cx="552450" cy="552450"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+              <a:t>P</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4895850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="角丸四角形 195"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7705725" y="6915150"/>
+          <a:ext cx="4467225" cy="3171825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1952"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>2D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>シミュレーション用の描画用ウィンドウ的なの</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4518422</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4838700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="角丸四角形 196"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793141" y="6960393"/>
+          <a:ext cx="320278" cy="290513"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1"/>
+            <a:t>×</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6709,7 +8941,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11922,7 +14154,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12292,7 +14524,7 @@
   <dimension ref="B2:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12408,10 +14640,10 @@
         <v>89</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
@@ -12421,11 +14653,11 @@
       <c r="C10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>121</v>
+      <c r="D10" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
@@ -12435,62 +14667,68 @@
       <c r="C11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>121</v>
+      <c r="D11" s="30" t="s">
+        <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="25">
         <v>45769</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>133</v>
+      <c r="D12" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="25">
         <v>45784</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>142</v>
+      <c r="D13" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="25">
         <v>45789</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>142</v>
+      <c r="D14" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="6"/>
+      <c r="B15" s="25">
+        <v>45819</v>
+      </c>
       <c r="C15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
@@ -12509,116 +14747,116 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="37"/>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="37"/>
-      <c r="C19" s="37" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="37"/>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="37"/>
-      <c r="C23" s="37" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="37"/>
-      <c r="C24" s="37" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="37"/>
-      <c r="C25" s="37" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="37"/>
-      <c r="C26" s="37" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="37"/>
-      <c r="C27" s="37" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="37"/>
-      <c r="C28" s="37" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="37"/>
-      <c r="C29" s="37" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="37"/>
-      <c r="C30" s="37" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="37"/>
-      <c r="C31" s="37" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12631,14 +14869,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="69.25" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.4">
@@ -12666,44 +14905,44 @@
       </c>
     </row>
     <row r="6" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="59" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C7" s="39"/>
-      <c r="D7" s="41"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="61" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="46"/>
-      <c r="D9" s="43"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="62"/>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C10" s="46"/>
-      <c r="D10" s="43"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="62"/>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="46"/>
-      <c r="D11" s="43"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="62"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C12" s="46"/>
-      <c r="D12" s="43"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="47"/>
-      <c r="D13" s="44"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="63"/>
     </row>
     <row r="14" spans="3:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="4" t="s">
@@ -12752,10 +14991,187 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="82.25" customWidth="1"/>
+    <col min="5" max="5" width="52.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.4">
+      <c r="B3" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="68"/>
+      <c r="C5" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="71"/>
+    </row>
+    <row r="6" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="69"/>
+      <c r="C8" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="73"/>
+    </row>
+    <row r="9" spans="2:5" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="50"/>
+    </row>
+    <row r="10" spans="2:5" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="50"/>
+    </row>
+    <row r="11" spans="2:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+    </row>
+    <row r="15" spans="2:5" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="B15" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13196,7 +15612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AA17:AC17"/>
   <sheetViews>
@@ -13220,7 +15636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6"/>
   <sheetViews>
@@ -13232,7 +15648,7 @@
   <sheetData>
     <row r="6" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -13240,1123 +15656,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="36.625" customWidth="1"/>
-    <col min="3" max="3" width="60.25" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="30">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="49"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="49"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="53"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="53"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="30">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="49"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="30">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="49"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="30">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="49"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="49"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="49"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="49"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="30">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B16"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D6:D20">
-    <cfRule type="dataBar" priority="35">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5DA51A0B-6ACE-4FE7-A1C7-90CC97BC7D4A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="dataBar" priority="33">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7B9C28B7-6446-4544-AE81-E47373F6E9A6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="34">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{07BBCB2C-F372-4C79-BD27-B6602B892E2B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D20">
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8B964863-5B19-444F-B5F9-43BFD127F20B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3DC27F7A-4929-4054-8554-FE2E8391CAA2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8922E05C-B796-4924-985E-405417DF4637}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8C6D70DD-1BA6-47BB-8F75-EC84A0B13C87}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6A5D2F10-C4C5-4250-BDD0-CE9AAA076A65}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="dataBar" priority="24">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AA9E24A0-31CD-4331-A6A7-5A9DE4B7A116}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="25">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F62F0070-418F-433C-AD22-0B9D00D164B0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B78D7469-B494-45C9-86DA-A93A8E565F0D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="27">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2511A860-641C-47D2-ACA2-F1A47FCE0611}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D20">
-    <cfRule type="dataBar" priority="23">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0103EEDB-D891-4137-85E1-B8068A32376D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="22">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D0B4A596-9C60-451F-B990-DFC378CA22DB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C16ACC3-EF4F-4FA0-B5CB-54A0F5BAE5DE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D20">
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{527DAB8A-EBD8-4887-9557-E5A5946AA03D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1E3EA266-E26B-4820-9940-DC06329842B5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D4">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{45657A0E-5C56-4952-AA43-AC2336FBB107}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D4">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D4168E8B-1053-443A-9F44-D2BE5577A272}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A5EF5B61-F7BE-4D08-9214-8018DEC5F3C0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D4">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D91D671E-A9D1-41CC-AB9B-C6C56F7CFF91}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3F235A79-C95D-42E1-8B43-1B8BCECB748F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1FE207D8-78A9-44AE-995B-5ADE96D14A35}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{319BCB92-52DD-4648-9E92-83525B0C8968}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{36FA6E0B-EE37-462F-B830-27B80E215B32}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{64DBCDDC-CFBD-4FAD-8C58-7805601C8AA2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A2934E0E-3B9A-4A85-B3E7-9F5AD258ACA8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7C650840-1ED7-4D7B-AB34-540A1976F843}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58989077-BB65-44E9-8F9B-7B803ACC623C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2AD12C55-59C9-4393-87F6-8800275AAE1A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3B1DA895-88DD-4918-90DC-2029A69F9E43}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C5222B0E-AAEB-4636-9A31-2E4D78B629EC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{19A08FCB-5543-433D-8928-0B664D00584E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E8481D6C-4A44-4ED3-A2FD-8A3B1099307A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5DA51A0B-6ACE-4FE7-A1C7-90CC97BC7D4A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D6:D20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7B9C28B7-6446-4544-AE81-E47373F6E9A6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{07BBCB2C-F372-4C79-BD27-B6602B892E2B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8B964863-5B19-444F-B5F9-43BFD127F20B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3DC27F7A-4929-4054-8554-FE2E8391CAA2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8922E05C-B796-4924-985E-405417DF4637}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8C6D70DD-1BA6-47BB-8F75-EC84A0B13C87}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D6:D20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6A5D2F10-C4C5-4250-BDD0-CE9AAA076A65}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3:D5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AA9E24A0-31CD-4331-A6A7-5A9DE4B7A116}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{F62F0070-418F-433C-AD22-0B9D00D164B0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{B78D7469-B494-45C9-86DA-A93A8E565F0D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2511A860-641C-47D2-ACA2-F1A47FCE0611}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3:D5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0103EEDB-D891-4137-85E1-B8068A32376D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{D0B4A596-9C60-451F-B990-DFC378CA22DB}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3C16ACC3-EF4F-4FA0-B5CB-54A0F5BAE5DE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3:D20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{527DAB8A-EBD8-4887-9557-E5A5946AA03D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1E3EA266-E26B-4820-9940-DC06329842B5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D7:D20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{45657A0E-5C56-4952-AA43-AC2336FBB107}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3:D4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D4168E8B-1053-443A-9F44-D2BE5577A272}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{A5EF5B61-F7BE-4D08-9214-8018DEC5F3C0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3:D4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D91D671E-A9D1-41CC-AB9B-C6C56F7CFF91}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3F235A79-C95D-42E1-8B43-1B8BCECB748F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1FE207D8-78A9-44AE-995B-5ADE96D14A35}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{319BCB92-52DD-4648-9E92-83525B0C8968}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3:D4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{36FA6E0B-EE37-462F-B830-27B80E215B32}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{64DBCDDC-CFBD-4FAD-8C58-7805601C8AA2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{A2934E0E-3B9A-4A85-B3E7-9F5AD258ACA8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7C650840-1ED7-4D7B-AB34-540A1976F843}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{58989077-BB65-44E9-8F9B-7B803ACC623C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2AD12C55-59C9-4393-87F6-8800275AAE1A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3B1DA895-88DD-4918-90DC-2029A69F9E43}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{C5222B0E-AAEB-4636-9A31-2E4D78B629EC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{19A08FCB-5543-433D-8928-0B664D00584E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{E8481D6C-4A44-4ED3-A2FD-8A3B1099307A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/AGS仕様書.xlsx
+++ b/AGS仕様書.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1553,6 +1553,26 @@
   </si>
   <si>
     <t>カップ、フタ単体画像、背景のラック画像</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加要素</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規シートとして追加</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -14523,8 +14543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14724,19 +14744,25 @@
         <v>89</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="6"/>
+      <c r="B16" s="25">
+        <v>45819</v>
+      </c>
       <c r="C16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
@@ -14993,7 +15019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
